--- a/DepotFinal/L3 Courbe en S.xlsx
+++ b/DepotFinal/L3 Courbe en S.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Semaine</t>
   </si>
@@ -81,16 +81,10 @@
     <t>Semaine 15: 17 avr</t>
   </si>
   <si>
-    <t>Progression estimé (CBTE)</t>
-  </si>
-  <si>
     <t>Cumulatif estimé (CBTP)</t>
   </si>
   <si>
     <t>Cumulatif dépensé (CRTE)</t>
-  </si>
-  <si>
-    <t>Progression %</t>
   </si>
   <si>
     <t>Indice de performance Coût (IPC)</t>
@@ -115,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +156,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -442,7 +443,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -493,25 +494,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,6 +533,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1445,7 +1452,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1151-4C30-A5AE-E72E97BE8064}"/>
@@ -1591,103 +1598,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1151-4C30-A5AE-E72E97BE8064}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Progression estimé (CBTE)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$7:$P$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.725</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>103.67500000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>103.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>78.05</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>71.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>182.47499999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>202.20000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>354.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>598.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>599.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-1151-4C30-A5AE-E72E97BE8064}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1696,7 +1610,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>Sheet1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1725,59 +1639,59 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$P$8</c:f>
+              <c:f>Sheet1!$B$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46799416180150122</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46799416180150122</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7699124270225188</c:v>
+                  <c:v>49.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0458715596330279</c:v>
+                  <c:v>62.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.817452043369475</c:v>
+                  <c:v>107.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.868640533778148</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.737698081734777</c:v>
+                  <c:v>137.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.423269391159298</c:v>
+                  <c:v>142.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.641367806505421</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>68.569745621351132</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>106.55973728106756</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>209.92087155963304</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>414.93171392827355</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>599.5</c:v>
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-93EE-4C0B-A38F-9E3AE29761C6}"/>
@@ -1795,6 +1709,75 @@
         <c:smooth val="0"/>
         <c:axId val="610510928"/>
         <c:axId val="610511584"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001D-1151-4C30-A5AE-E72E97BE8064}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="610510928"/>
@@ -2527,16 +2510,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>163213</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>160160</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2933307</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>268548</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>204823</xdr:rowOff>
+      <xdr:colOff>53395</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70352</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2565,8 +2548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:P10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A1:P10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:P8" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Semaine" dataDxfId="16" totalsRowDxfId="15"/>
     <tableColumn id="2" name="W1" dataDxfId="14"/>
@@ -2852,16 +2835,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W220"/>
+  <dimension ref="A1:W218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.109375" style="2"/>
@@ -2966,12 +2951,12 @@
       <c r="P2" s="15">
         <v>54</v>
       </c>
-      <c r="T2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="30"/>
+      <c r="T2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -3022,14 +3007,14 @@
       <c r="P3" s="15">
         <v>100.75</v>
       </c>
-      <c r="T3" s="31"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="33"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="17">
         <f>B2</f>
@@ -3091,14 +3076,14 @@
         <f>P2+Tableau2[[#This Row],[W14]]</f>
         <v>495</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="33"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>22</v>
+      <c r="A5" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="17">
         <f>B3</f>
@@ -3160,343 +3145,234 @@
         <f>P3+Tableau2[[#This Row],[W14]]</f>
         <v>599.5</v>
       </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="33"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="37"/>
+    </row>
+    <row r="6" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D6" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>49.6</v>
+      </c>
+      <c r="F6" s="18">
+        <v>62.3</v>
+      </c>
+      <c r="G6" s="18">
+        <v>107.1</v>
+      </c>
+      <c r="H6" s="18">
+        <v>130</v>
+      </c>
+      <c r="I6" s="18">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="J6" s="18">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="K6" s="18">
+        <v>208</v>
+      </c>
+      <c r="L6" s="18">
+        <v>234</v>
+      </c>
+      <c r="M6" s="18">
+        <v>318</v>
+      </c>
+      <c r="N6" s="18">
+        <v>373</v>
+      </c>
+      <c r="O6" s="18">
+        <v>420</v>
+      </c>
+      <c r="P6" s="18">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <f>C6/C5</f>
+        <v>1.1701492537313434</v>
+      </c>
+      <c r="D7" s="20">
+        <f>D6/D5</f>
+        <v>1.3253731343283581</v>
+      </c>
+      <c r="E7" s="20">
+        <f>E6/E5</f>
+        <v>1.2171779141104295</v>
+      </c>
+      <c r="F7" s="20">
+        <f>F6/F5</f>
+        <v>1.1327272727272726</v>
+      </c>
+      <c r="G7" s="20">
+        <f>G6/G5</f>
+        <v>1.136339522546419</v>
+      </c>
+      <c r="H7" s="20">
+        <f>H6/H5</f>
+        <v>1.2560386473429952</v>
+      </c>
+      <c r="I7" s="20">
+        <f>I6/I5</f>
+        <v>1.2304932735426009</v>
+      </c>
+      <c r="J7" s="20">
+        <f>J6/J5</f>
+        <v>1.2050632911392407</v>
+      </c>
+      <c r="K7" s="20">
+        <f>K6/K5</f>
+        <v>1.3164556962025316</v>
+      </c>
+      <c r="L7" s="20">
+        <f>L6/L5</f>
+        <v>1.1541307028360048</v>
+      </c>
+      <c r="M7" s="20">
+        <f>M6/M5</f>
+        <v>1.258160237388724</v>
+      </c>
+      <c r="N7" s="20">
+        <f>N6/N5</f>
+        <v>1.0514446793516561</v>
+      </c>
+      <c r="O7" s="20">
+        <f>O6/O5</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="P7" s="20">
+        <f>P6/P5</f>
+        <v>0.82568807339449546</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="25"/>
+    </row>
+    <row r="8" spans="1:23" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="19">
-        <f>B5/B4</f>
+      <c r="B8" s="21">
+        <f>B6/B4</f>
         <v>0</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C8" s="21">
+        <f>C6/C4</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D8" s="21">
+        <f>D6/D4</f>
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="21">
+        <f>E6/E4</f>
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="21">
+        <f>F6/F4</f>
         <v>0.7</v>
       </c>
-      <c r="D6" s="19">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="G6" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="G8" s="21">
+        <f>G6/G4</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H8" s="21">
+        <f>H6/H4</f>
         <v>1</v>
       </c>
-      <c r="I6" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="L6" s="19">
+      <c r="I8" s="21">
+        <f>I6/I4</f>
+        <v>0.87388535031847125</v>
+      </c>
+      <c r="J8" s="21">
+        <f>J6/J4</f>
+        <v>0.8067796610169492</v>
+      </c>
+      <c r="K8" s="21">
+        <f>K6/K4</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="21">
+        <f>L6/L4</f>
         <v>0.9</v>
       </c>
-      <c r="M6" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="N6" s="18">
+      <c r="M8" s="21">
+        <f>M6/M4</f>
         <v>1</v>
       </c>
-      <c r="O6" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="P6" s="18">
+      <c r="N8" s="21">
+        <f>N6/N4</f>
         <v>1</v>
       </c>
-      <c r="T6" s="31"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="33"/>
-    </row>
-    <row r="7" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="19">
-        <f>B6*B5</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="19">
-        <f>C6*C5</f>
-        <v>11.725</v>
-      </c>
-      <c r="D7" s="19">
-        <f t="shared" ref="D7:P7" si="0">D6*D5</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
-        <f t="shared" si="0"/>
-        <v>32.6</v>
-      </c>
-      <c r="F7" s="19">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="G7" s="19">
-        <f t="shared" si="0"/>
-        <v>103.67500000000001</v>
-      </c>
-      <c r="H7" s="19">
-        <f t="shared" si="0"/>
-        <v>103.5</v>
-      </c>
-      <c r="I7" s="19">
-        <f t="shared" si="0"/>
-        <v>78.05</v>
-      </c>
-      <c r="J7" s="19">
-        <f t="shared" si="0"/>
-        <v>71.099999999999994</v>
-      </c>
-      <c r="K7" s="19">
-        <f t="shared" si="0"/>
-        <v>150.1</v>
-      </c>
-      <c r="L7" s="19">
-        <f t="shared" si="0"/>
-        <v>182.47499999999999</v>
-      </c>
-      <c r="M7" s="19">
-        <f t="shared" si="0"/>
-        <v>202.20000000000002</v>
-      </c>
-      <c r="N7" s="19">
-        <f t="shared" si="0"/>
-        <v>354.75</v>
-      </c>
-      <c r="O7" s="19">
-        <f t="shared" si="0"/>
-        <v>598.5</v>
-      </c>
-      <c r="P7" s="19">
-        <f t="shared" si="0"/>
-        <v>599.5</v>
-      </c>
-      <c r="T7" s="34"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="36"/>
-    </row>
-    <row r="8" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="20">
-        <f>B7/$P$4</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="21">
-        <f>(C5/$P$5)*C5</f>
-        <v>0.46799416180150122</v>
-      </c>
-      <c r="D8" s="21">
-        <f t="shared" ref="D8:P8" si="1">(D5/$P$5)*D5</f>
-        <v>0.46799416180150122</v>
-      </c>
-      <c r="E8" s="21">
-        <f t="shared" si="1"/>
-        <v>2.7699124270225188</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="1"/>
-        <v>5.0458715596330279</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="1"/>
-        <v>14.817452043369475</v>
-      </c>
-      <c r="H8" s="21">
-        <f t="shared" si="1"/>
-        <v>17.868640533778148</v>
-      </c>
-      <c r="I8" s="21">
-        <f t="shared" si="1"/>
-        <v>20.737698081734777</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" si="1"/>
-        <v>23.423269391159298</v>
-      </c>
-      <c r="K8" s="21">
-        <f t="shared" si="1"/>
-        <v>41.641367806505421</v>
-      </c>
-      <c r="L8" s="20">
-        <f t="shared" si="1"/>
-        <v>68.569745621351132</v>
-      </c>
-      <c r="M8" s="20">
-        <f t="shared" si="1"/>
-        <v>106.55973728106756</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" si="1"/>
-        <v>209.92087155963304</v>
-      </c>
-      <c r="O8" s="20">
-        <f t="shared" si="1"/>
-        <v>414.93171392827355</v>
-      </c>
-      <c r="P8" s="20">
-        <f t="shared" si="1"/>
-        <v>599.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="25">
-        <v>0</v>
-      </c>
-      <c r="C9" s="25">
-        <f t="shared" ref="C9:P9" si="2">C8/C5</f>
-        <v>2.7939949958298581E-2</v>
-      </c>
-      <c r="D9" s="25">
-        <f t="shared" si="2"/>
-        <v>2.7939949958298581E-2</v>
-      </c>
-      <c r="E9" s="25">
-        <f t="shared" si="2"/>
-        <v>6.7973311092577149E-2</v>
-      </c>
-      <c r="F9" s="25">
-        <f t="shared" si="2"/>
-        <v>9.1743119266055051E-2</v>
-      </c>
-      <c r="G9" s="25">
-        <f t="shared" si="2"/>
-        <v>0.15721434528773978</v>
-      </c>
-      <c r="H9" s="25">
-        <f t="shared" si="2"/>
-        <v>0.17264386989157632</v>
-      </c>
-      <c r="I9" s="25">
-        <f t="shared" si="2"/>
-        <v>0.18598832360300249</v>
-      </c>
-      <c r="J9" s="25">
-        <f t="shared" si="2"/>
-        <v>0.19766472060050042</v>
-      </c>
-      <c r="K9" s="25">
-        <f t="shared" si="2"/>
-        <v>0.2635529608006672</v>
-      </c>
-      <c r="L9" s="22">
-        <f t="shared" si="2"/>
-        <v>0.33819849874895747</v>
-      </c>
-      <c r="M9" s="22">
-        <f t="shared" si="2"/>
-        <v>0.42160133444537112</v>
-      </c>
-      <c r="N9" s="22">
-        <f t="shared" si="2"/>
-        <v>0.59174311926605505</v>
-      </c>
-      <c r="O9" s="22">
-        <f t="shared" si="2"/>
-        <v>0.83194328607172641</v>
-      </c>
-      <c r="P9" s="22">
-        <f t="shared" si="2"/>
+      <c r="O8" s="21">
+        <f>O6/O4</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="P8" s="21">
+        <f>P6/P4</f>
         <v>1</v>
       </c>
-      <c r="T9" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="30"/>
-    </row>
-    <row r="10" spans="1:23" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="26">
-        <f>B8/B4</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="26">
-        <f t="shared" ref="C10:P10" si="3">C8/C4</f>
-        <v>1.6714077207196473E-2</v>
-      </c>
-      <c r="D10" s="26">
-        <f t="shared" si="3"/>
-        <v>1.2648490859500034E-2</v>
-      </c>
-      <c r="E10" s="26">
-        <f t="shared" si="3"/>
-        <v>4.4676006887459978E-2</v>
-      </c>
-      <c r="F10" s="26">
-        <f t="shared" si="3"/>
-        <v>5.6695186063292449E-2</v>
-      </c>
-      <c r="G10" s="26">
-        <f t="shared" si="3"/>
-        <v>0.12451640372579391</v>
-      </c>
-      <c r="H10" s="26">
-        <f t="shared" si="3"/>
-        <v>0.13745108102906267</v>
-      </c>
-      <c r="I10" s="26">
-        <f t="shared" si="3"/>
-        <v>0.132087248928247</v>
-      </c>
-      <c r="J10" s="26">
-        <f t="shared" si="3"/>
-        <v>0.13233485531728417</v>
-      </c>
-      <c r="K10" s="26">
-        <f t="shared" si="3"/>
-        <v>0.20019888368512223</v>
-      </c>
-      <c r="L10" s="26">
-        <f t="shared" si="3"/>
-        <v>0.26372979085135051</v>
-      </c>
-      <c r="M10" s="26">
-        <f t="shared" si="3"/>
-        <v>0.33509351346247657</v>
-      </c>
-      <c r="N10" s="26">
-        <f t="shared" si="3"/>
-        <v>0.56279054037435128</v>
-      </c>
-      <c r="O10" s="26">
-        <f t="shared" si="3"/>
-        <v>0.94088824020016681</v>
-      </c>
-      <c r="P10" s="26">
-        <f t="shared" si="3"/>
-        <v>1.211111111111111</v>
-      </c>
-      <c r="T10" s="31"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="33"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="28"/>
+    </row>
+    <row r="9" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="28"/>
+    </row>
+    <row r="10" spans="1:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="38"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="28"/>
     </row>
     <row r="11" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3504,15 +3380,13 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-    </row>
-    <row r="12" spans="1:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="T11" s="29"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="31"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3520,10 +3394,6 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="4"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="33"/>
     </row>
     <row r="13" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
@@ -3534,10 +3404,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="4"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="36"/>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
@@ -3558,7 +3425,6 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="4"/>
-      <c r="O15" s="27"/>
     </row>
     <row r="16" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
@@ -5580,40 +5446,20 @@
       <c r="G217" s="1"/>
       <c r="H217" s="4"/>
     </row>
-    <row r="218" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="3"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="4"/>
-    </row>
-    <row r="219" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="3"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="4"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A220" s="5"/>
-      <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
-      <c r="F220" s="6"/>
-      <c r="G220" s="6"/>
-      <c r="H220" s="7"/>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A218" s="5"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="T9:W13"/>
-    <mergeCell ref="T2:W7"/>
+    <mergeCell ref="T7:W11"/>
+    <mergeCell ref="T2:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
